--- a/src/test/java/com/modern/firstProject/resources/data-files/motor/datafile_motorcar.xlsx
+++ b/src/test/java/com/modern/firstProject/resources/data-files/motor/datafile_motorcar.xlsx
@@ -21,189 +21,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="200">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
   <si>
-    <t xml:space="preserve">StartFromCmsAffiliateMain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartFromCmsFormMain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartFromCmsFormMini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsBaseUrlFormMain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsBaseUrlFormMini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAffiliateBaseUrlFormMain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAffiliateBaseNonce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAffiliateBasePsnNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsMaximizeMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsWithAuth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAuthUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAuthPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsLanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsCarMake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsCarModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsCarYear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsCarSubmodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsKeepDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAffiliateMaximizeMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAffiliateWithAuth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAffiliateAuthUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAffiliateAuthPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmsAffiliateLanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaseUrl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaximizeMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WithAuth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AuthUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AuthPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referrer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CarMake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CarModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CarYear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GenderMain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaritalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BirthDateMain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YearDriving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClaimsNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VehicleUsage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VehicleUsageForCommercial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VehicleUsageDriveToWork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VehicleUsageDriveToWorkOften</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaxiOrVehicleForHire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RentalVehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GoodsTransportVehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LogisticsOrCourierCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GoodsTransportRoute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OdometerReading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeclaredNcb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CarCamera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnderFinancing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlcoholFree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PositiveCase</t>
+    <t xml:space="preserve">MotorCarProductTestCaseToDo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductStartFromCmsAffiliateMain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductStartFromCmsFormMain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductStartFromCmsFormMini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsBaseUrlFormMain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsBaseUrlFormMini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAffiliateBaseUrlFormMain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAffiliateBaseNonce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAffiliateBasePsnNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsMaximizeMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsWithAuth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAuthUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAuthPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsCarMake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsCarModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsCarYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsCarSubmodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsKeepDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAffiliateMaximizeMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAffiliateWithAuth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAffiliateAuthUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAffiliateAuthPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCmsAffiliateLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductBaseUrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductMaximizeMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductWithAuth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductAuthUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductAuthPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductReferrer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCarMake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCarModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCarYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductSubmodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductGenderMain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductMaritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductBirthDateMain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductYearDriving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductClaimsNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductVehicleUsage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductVehicleUsageForCommercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductVehicleUsageDriveToWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductVehicleUsageDriveToWorkOften</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductTaxiOrVehicleForHire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductRentalVehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductGoodsTransportVehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductLogisticsOrCourierCompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductGoodsTransportRoute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductPostalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductOdometerReading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductDeclaredNcb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductCarCamera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductUnderFinancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductTentative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductAlcoholFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MotorCarProductPositiveCase</t>
   </si>
   <si>
     <t xml:space="preserve">Default_Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes[Yes,No]</t>
+  </si>
+  <si>
     <t xml:space="preserve">No[Yes,No]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes[Yes,No]</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.uat-roojai.com</t>
@@ -281,12 +284,12 @@
     <t xml:space="preserve">Test_Case_01</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -342,6 +345,40 @@
   </si>
   <si>
     <t xml:space="preserve">Test_Case_06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t xml:space="preserve">Test_Case_01:[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t xml:space="preserve">MotorCarProductTestCaseToDo</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t xml:space="preserve">,Yes],</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Test_Case_07</t>
@@ -631,7 +668,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -657,8 +694,28 @@
       <charset val="222"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -673,14 +730,21 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="222"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="222"/>
@@ -728,8 +792,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -737,20 +805,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -876,1033 +956,1104 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF101"/>
+  <dimension ref="A1:BG101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="16.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="7.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="7.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="8.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="8.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="23.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="16.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="9.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="14.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="9.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="12.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="16.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="7.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="6.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="7.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="7.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="20.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="23.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="14.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="7.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="10.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="BG1" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Z2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="AI2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AT2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AO2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="AO3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="AT3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="BD3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
+      <c r="BE3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BG3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AS3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>100</v>
+      <c r="A4" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>101</v>
+      <c r="A5" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="A6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="A7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>104</v>
+      <c r="A8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="A9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="A11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="A12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="A13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="A14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="A16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="A18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="A19" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="A20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="A22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="A23" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="A24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="A25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="A26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="A27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="A28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="A29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="A30" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="A31" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="A32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="A33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="A34" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="A35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="A36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="A37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="A38" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="A39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="A40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="A41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="A42" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="A43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A44" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="A45" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="A46" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="A47" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="A48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="A49" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="A50" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="A51" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="A52" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="A53" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="A54" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="A55" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="A56" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="A57" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="A58" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="A59" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
-        <v>156</v>
-      </c>
+      <c r="A60" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="A61" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
-        <v>158</v>
-      </c>
+      <c r="A62" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="A63" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="s">
-        <v>160</v>
+      <c r="A64" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
-        <v>161</v>
+      <c r="A65" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
-        <v>162</v>
+      <c r="A66" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
-        <v>163</v>
+      <c r="A67" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="s">
-        <v>164</v>
+      <c r="A68" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
-        <v>165</v>
+      <c r="A69" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
-        <v>166</v>
+      <c r="A70" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
-        <v>167</v>
+      <c r="A71" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="s">
-        <v>168</v>
+      <c r="A72" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
-        <v>169</v>
+      <c r="A73" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
-        <v>170</v>
+      <c r="A74" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
-        <v>171</v>
+      <c r="A75" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
-        <v>172</v>
+      <c r="A76" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
-        <v>173</v>
+      <c r="A77" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>174</v>
+      <c r="A78" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>175</v>
+      <c r="A79" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
-        <v>176</v>
+      <c r="A80" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="s">
-        <v>177</v>
+      <c r="A81" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
-        <v>178</v>
+      <c r="A82" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
-        <v>179</v>
+      <c r="A83" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="s">
-        <v>180</v>
+      <c r="A84" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>181</v>
+      <c r="A85" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
-        <v>182</v>
+      <c r="A86" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
-        <v>183</v>
+      <c r="A87" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
-        <v>184</v>
+      <c r="A88" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
-        <v>185</v>
+      <c r="A89" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="s">
-        <v>186</v>
+      <c r="A90" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
-        <v>187</v>
+      <c r="A91" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
-        <v>188</v>
+      <c r="A92" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
-        <v>189</v>
+      <c r="A93" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
-        <v>190</v>
+      <c r="A94" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>191</v>
+      <c r="A95" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
-        <v>192</v>
+      <c r="A96" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
-        <v>193</v>
+      <c r="A97" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>194</v>
+      <c r="A98" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
-        <v>195</v>
+      <c r="A99" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="s">
-        <v>196</v>
+      <c r="A100" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="s">
-        <v>197</v>
+      <c r="A101" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
